--- a/docs/StructureDefinition-ProcedureOutpatient.xlsx
+++ b/docs/StructureDefinition-ProcedureOutpatient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.6</t>
+    <t>1.4.10</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-18T11:22:00+00:00</t>
+    <t>2025-04-18T16:44:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-ProcedureOutpatient.xlsx
+++ b/docs/StructureDefinition-ProcedureOutpatient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.15</t>
+    <t>1.5.11</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-30T18:27:21+00:00</t>
+    <t>2025-05-08T08:24:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-ProcedureOutpatient.xlsx
+++ b/docs/StructureDefinition-ProcedureOutpatient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-08T08:24:02+00:00</t>
+    <t>2025-05-08T08:54:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-ProcedureOutpatient.xlsx
+++ b/docs/StructureDefinition-ProcedureOutpatient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.11</t>
+    <t>1.5.16</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-08T08:54:46+00:00</t>
+    <t>2025-05-12T19:54:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-ProcedureOutpatient.xlsx
+++ b/docs/StructureDefinition-ProcedureOutpatient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.16</t>
+    <t>1.5.23</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-12T19:54:30+00:00</t>
+    <t>2025-05-23T16:28:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -797,13 +797,24 @@
     <t>1413: source value based on V CPT - CPT &gt; CPT (9000010.18-.01 &gt; 81-)</t>
   </si>
   <si>
-    <t>Outpat.VProcedure.CPTIEN,Outpat.VProcedureCPTModifier.CPTIEN,Outpat.VProcedureDiagnosis.CPTIEN,Outpat.WorkloadVProcedure.CPTIEN,Outpat.WorkloadVProcedureCPTModifier.CPTIEN,Outpat.WorkloadVProcedureDiagnosis.CPTIEN</t>
-  </si>
-  <si>
-    <t>Encounter.Extension[EncounterExtension].Cpt,Encounter.Extension[EncounterExtension].Cpt,Procedure.Procedure,Procedure.Procedure[CodeTableDetail.Procedure].Code</t>
-  </si>
-  <si>
-    <t>visit.cpt [m] (&gt;81-.01),visit.cpt [m] (&gt;81-2),visit.type (&gt;81-.01),visit.type (&gt;81-2)</t>
+    <t>Outpat.VProcedure.CPTIEN
+Outpat.VProcedureCPTModifier.CPTIEN
+Outpat.VProcedureDiagnosis.CPTIEN
+Outpat.WorkloadVProcedure.CPTIEN
+Outpat.WorkloadVProcedureCPTModifier.CPTIEN
+Outpat.WorkloadVProcedureDiagnosis.CPTIEN</t>
+  </si>
+  <si>
+    <t>Encounter.Extension[EncounterExtension].Cpt
+Encounter.Extension[EncounterExtension].Cpt
+Procedure.Procedure
+Procedure.Procedure[CodeTableDetail.Procedure].Code</t>
+  </si>
+  <si>
+    <t>visit.cpt [m] (&gt;81-.01)
+visit.cpt [m] (&gt;81-2)
+visit.type (&gt;81-.01)
+visit.type (&gt;81-2)</t>
   </si>
   <si>
     <t>union(., ./translation)</t>
@@ -887,8 +898,14 @@
     <t>1413-1: source value based on V CPT - CPT &gt; CPT - CPT CODE (9000010.18-.01 &gt; 81-.01)</t>
   </si>
   <si>
-    <t>Outpat.VProcedure.CPTIEN,Outpat.VProcedureCPTModifier.CPTIEN,Outpat.VProcedureDiagnosis.CPTIEN,Outpat.WorkloadVProcedure.CPTIEN,Outpat.WorkloadVProcedureCPTModifier.CPTIEN,Outpat.WorkloadVProcedureDiagnosis.CPTIEN
-Dim.CPT.CPTCode,Dim.CPT.CPTCode</t>
+    <t>Outpat.VProcedure.CPTIEN
+Outpat.VProcedureCPTModifier.CPTIEN
+Outpat.VProcedureDiagnosis.CPTIEN
+Outpat.WorkloadVProcedure.CPTIEN
+Outpat.WorkloadVProcedureCPTModifier.CPTIEN
+Outpat.WorkloadVProcedureDiagnosis.CPTIEN
+Dim.CPT.CPTCode
+Dim.CPT.CPTCode</t>
   </si>
   <si>
     <t>./code</t>
@@ -915,8 +932,14 @@
     <t>1413-2: source value based on V CPT - CPT &gt; CPT - SHORT NAME (9000010.18-.01 &gt; 81-2)</t>
   </si>
   <si>
-    <t>Outpat.VProcedure.CPTIEN,Outpat.VProcedureCPTModifier.CPTIEN,Outpat.VProcedureDiagnosis.CPTIEN,Outpat.WorkloadVProcedure.CPTIEN,Outpat.WorkloadVProcedureCPTModifier.CPTIEN,Outpat.WorkloadVProcedureDiagnosis.CPTIEN
-Dim.CPT.CPTName,Dim.CPT.CPTName</t>
+    <t>Outpat.VProcedure.CPTIEN
+Outpat.VProcedureCPTModifier.CPTIEN
+Outpat.VProcedureDiagnosis.CPTIEN
+Outpat.WorkloadVProcedure.CPTIEN
+Outpat.WorkloadVProcedureCPTModifier.CPTIEN
+Outpat.WorkloadVProcedureDiagnosis.CPTIEN
+Dim.CPT.CPTName
+Dim.CPT.CPTName</t>
   </si>
   <si>
     <t>CV.displayName</t>
@@ -974,11 +997,13 @@
     <t>1301: source value based on V CPT - PROVIDER NARRATIVE &gt; PROVIDER NARRATIVE - NARRATIVE (9000010.18-.04 &gt; 9999999.27-.01)</t>
   </si>
   <si>
-    <t>Outpat.VProcedure.ProviderNarrativeIEN,Outpat.WorkloadVProcedure.ProviderNarrativeIEN
+    <t>Outpat.VProcedure.ProviderNarrativeIEN
+Outpat.WorkloadVProcedure.ProviderNarrativeIEN
 Dim.ProviderNarrative.ProviderNarrative</t>
   </si>
   <si>
-    <t>Procedure.Procedure,Procedure.Procedure[CodeTableDetail.Procedure].OriginalText</t>
+    <t>Procedure.Procedure
+Procedure.Procedure[CodeTableDetail.Procedure].OriginalText</t>
   </si>
   <si>
     <t>./originalText[mediaType/code="text/plain"]/data</t>
@@ -1007,7 +1032,12 @@
     <t>1299: reference based on V CPT - PATIENT NAME &gt; PATIENT/IHS - NAME (9000010.18-.02 &gt; 9000001-.01)</t>
   </si>
   <si>
-    <t>Outpat.VProcedure.PatientIEN,Outpat.VProcedureCPTModifier.PatientIEN,Outpat.VProcedureDiagnosis.PatientIEN,Outpat.WorkloadVProcedure.PatientIEN,Outpat.WorkloadVProcedureCPTModifier.PatientIEN,Outpat.WorkloadVProcedureDiagnosis.PatientIEN</t>
+    <t>Outpat.VProcedure.PatientIEN
+Outpat.VProcedureCPTModifier.PatientIEN
+Outpat.VProcedureDiagnosis.PatientIEN
+Outpat.WorkloadVProcedure.PatientIEN
+Outpat.WorkloadVProcedureCPTModifier.PatientIEN
+Outpat.WorkloadVProcedureDiagnosis.PatientIEN</t>
   </si>
   <si>
     <t>Event.subject</t>
@@ -1041,10 +1071,25 @@
     <t>1300: reference based on V CPT - VISIT (9000010.18-.03)</t>
   </si>
   <si>
-    <t>Outpat.VProcedure.VisitDateTime,Outpat.VProcedure.VisitIEN,Outpat.VProcedureCPTModifier.VisitDateTime,Outpat.VProcedureCPTModifier.VisitIEN,Outpat.VProcedureDiagnosis.VisitDateTime,Outpat.VProcedureDiagnosis.VisitIEN,Outpat.WorkloadVProcedure.VisitDateTime,Outpat.WorkloadVProcedure.VisitIEN,Outpat.WorkloadVProcedureCPTModifier.VisitDateTime,Outpat.WorkloadVProcedureCPTModifier.VisitIEN,Outpat.WorkloadVProcedureDiagnosis.VisitDateTime,Outpat.WorkloadVProcedureDiagnosis.VisitIEN</t>
-  </si>
-  <si>
-    <t>Procedure.EncounterNumber,Procedure.EnteredAt,Procedure.EnteredBy,Procedure.EnteredOn,Procedure.Extension[ProcedureExtension].Location</t>
+    <t>Outpat.VProcedure.VisitDateTime
+Outpat.VProcedure.VisitIEN
+Outpat.VProcedureCPTModifier.VisitDateTime
+Outpat.VProcedureCPTModifier.VisitIEN
+Outpat.VProcedureDiagnosis.VisitDateTime
+Outpat.VProcedureDiagnosis.VisitIEN
+Outpat.WorkloadVProcedure.VisitDateTime
+Outpat.WorkloadVProcedure.VisitIEN
+Outpat.WorkloadVProcedureCPTModifier.VisitDateTime
+Outpat.WorkloadVProcedureCPTModifier.VisitIEN
+Outpat.WorkloadVProcedureDiagnosis.VisitDateTime
+Outpat.WorkloadVProcedureDiagnosis.VisitIEN</t>
+  </si>
+  <si>
+    <t>Procedure.EncounterNumber
+Procedure.EnteredAt
+Procedure.EnteredBy
+Procedure.EnteredOn
+Procedure.Extension[ProcedureExtension].Location</t>
   </si>
   <si>
     <t>Event.context</t>
@@ -1104,10 +1149,14 @@
     <t>1310: source value based on V CPT - EVENT DATE AND TIME (9000010.18-1201)</t>
   </si>
   <si>
-    <t>Outpat.VProcedure.EventDateTime,Outpat.VProcedureDiagnosis.EventDateTime,Outpat.WorkloadVProcedure.EventDateTime,Outpat.WorkloadVProcedureDiagnosis.EventDateTime</t>
-  </si>
-  <si>
-    <t>Procedure.FromTime,Procedure.ProcedureTime</t>
+    <t>Outpat.VProcedure.EventDateTime
+Outpat.VProcedureDiagnosis.EventDateTime
+Outpat.WorkloadVProcedure.EventDateTime
+Outpat.WorkloadVProcedureDiagnosis.EventDateTime</t>
+  </si>
+  <si>
+    <t>Procedure.FromTime
+Procedure.ProcedureTime</t>
   </si>
   <si>
     <t>Procedure.recorder</t>
@@ -1232,7 +1281,8 @@
     <t>1311: reference based on V CPT - ENCOUNTER PROVIDER (9000010.18-1204)</t>
   </si>
   <si>
-    <t>Outpat.VProcedure.EncounterProviderIEN,Outpat.WorkloadVProcedure.EncounterProviderIEN</t>
+    <t>Outpat.VProcedure.EncounterProviderIEN
+Outpat.WorkloadVProcedure.EncounterProviderIEN</t>
   </si>
   <si>
     <t>Procedure.Clinician</t>
@@ -1312,7 +1362,8 @@
     <t>1309: source value based on V CPT - DIAGNOSIS 8 &gt; ICD DIAGNOSIS (9000010.18-.15 &gt; 80-)</t>
   </si>
   <si>
-    <t>Outpat.VProcedureDiagnosis.ICDIEN,Outpat.WorkloadVProcedureDiagnosis.ICDIEN</t>
+    <t>Outpat.VProcedureDiagnosis.ICDIEN
+Outpat.WorkloadVProcedureDiagnosis.ICDIEN</t>
   </si>
   <si>
     <t>Event.reasonCode</t>
@@ -1357,7 +1408,8 @@
     <t>1309-2: source value based on V CPT - DIAGNOSIS 8 &gt; ICD DIAGNOSIS - CODE NUMBER (9000010.18-.15 &gt; 80-.01)</t>
   </si>
   <si>
-    <t>Dim.ICD10.ICD10Code,Dim.ICD9.ICD9Code</t>
+    <t>Dim.ICD10.ICD10Code
+Dim.ICD9.ICD9Code</t>
   </si>
   <si>
     <t>Procedure.reasonCode.coding.display</t>
@@ -1592,7 +1644,8 @@
     <t>1312: source value based on V CPT - COMMENTS (9000010.18-81101)</t>
   </si>
   <si>
-    <t>Outpat.VProcedure.Comments,Outpat.WorkloadVProcedure.Comments</t>
+    <t>Outpat.VProcedure.Comments
+Outpat.WorkloadVProcedure.Comments</t>
   </si>
   <si>
     <t>Procedure.Extension[ProcedureExtension].Comments</t>
@@ -2059,9 +2112,9 @@
     <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="107.60546875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="135.4765625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="65.28125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="44.21875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="50.203125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="39.4609375" customWidth="true" bestFit="true"/>
     <col min="41" max="41" width="25.4609375" customWidth="true" bestFit="true"/>
     <col min="42" max="42" width="122.22265625" customWidth="true" bestFit="true"/>
     <col min="43" max="43" width="31.65234375" customWidth="true" bestFit="true"/>

--- a/docs/StructureDefinition-ProcedureOutpatient.xlsx
+++ b/docs/StructureDefinition-ProcedureOutpatient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.23</t>
+    <t>1.5.30</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-23T16:28:56+00:00</t>
+    <t>2025-05-25T09:23:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-ProcedureOutpatient.xlsx
+++ b/docs/StructureDefinition-ProcedureOutpatient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.30</t>
+    <t>1.6.49</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-25T09:23:19+00:00</t>
+    <t>2025-06-13T16:10:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
